--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetMMAEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetMMAEmptyMarketsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>3716910  This game has no available Markets</t>
   </si>
@@ -29,7 +29,13 @@
     <t>3716947  This game has no available Markets</t>
   </si>
   <si>
+    <t>3704047  This game has no available Markets</t>
+  </si>
+  <si>
     <t>3710937  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>3716839  This game has no available Markets</t>
   </si>
   <si>
     <t>3716865  This game has no available Markets</t>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,6 +135,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetMMAEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetMMAEmptyMarketsList.xlsx
@@ -12,36 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>3716910  This game has no available Markets</t>
+    <t>3716910  This game has no available Markets:  Start time = 2022-12-31T10:00:00</t>
   </si>
   <si>
-    <t>3733324  This game has no available Markets</t>
+    <t>3727427  This game has no available Markets:  Start time = 2022-09-17T22:00:00</t>
   </si>
   <si>
-    <t>3733325  This game has no available Markets</t>
+    <t>3716947  This game has no available Markets:  Start time = 2022-12-31T23:00:00</t>
   </si>
   <si>
-    <t>3733326  This game has no available Markets</t>
+    <t>3704047  This game has no available Markets:  Start time = 2022-09-18T03:00:00</t>
   </si>
   <si>
-    <t>3716947  This game has no available Markets</t>
+    <t>3716865  This game has no available Markets:  Start time = 2022-09-18T03:00:00</t>
   </si>
   <si>
-    <t>3704047  This game has no available Markets</t>
+    <t>3716871  This game has no available Markets:  Start time = 2022-10-16T07:00:00</t>
   </si>
   <si>
-    <t>3710937  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3716839  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3716865  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3716871  This game has no available Markets</t>
+    <t>3741343  This game has no available Markets:  Start time = 2022-10-23T03:00:00</t>
   </si>
 </sst>
 </file>
@@ -86,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,21 +121,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
